--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il27-Il27ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il27-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>2.740273</v>
       </c>
       <c r="I2">
-        <v>0.4164467621298553</v>
+        <v>0.2338231012639866</v>
       </c>
       <c r="J2">
-        <v>0.4164467621298553</v>
+        <v>0.2338231012639866</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.977152666666667</v>
+        <v>2.171010666666667</v>
       </c>
       <c r="N2">
-        <v>5.931458</v>
+        <v>6.513032</v>
       </c>
       <c r="O2">
-        <v>0.5296093122610759</v>
+        <v>0.5189085589295733</v>
       </c>
       <c r="P2">
-        <v>0.5296093122610759</v>
+        <v>0.5189085589295733</v>
       </c>
       <c r="Q2">
-        <v>1.805979356448222</v>
+        <v>1.983053970859556</v>
       </c>
       <c r="R2">
-        <v>16.253814208034</v>
+        <v>17.847485737736</v>
       </c>
       <c r="S2">
-        <v>0.2205540832849445</v>
+        <v>0.121332808521339</v>
       </c>
       <c r="T2">
-        <v>0.2205540832849445</v>
+        <v>0.121332808521339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>2.740273</v>
       </c>
       <c r="I3">
-        <v>0.4164467621298553</v>
+        <v>0.2338231012639866</v>
       </c>
       <c r="J3">
-        <v>0.4164467621298553</v>
+        <v>0.2338231012639866</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>4.684564</v>
       </c>
       <c r="O3">
-        <v>0.4182763695339315</v>
+        <v>0.3732302181922886</v>
       </c>
       <c r="P3">
-        <v>0.4182763695339315</v>
+        <v>0.3732302181922886</v>
       </c>
       <c r="Q3">
         <v>1.426331582885778</v>
@@ -638,10 +638,10 @@
         <v>12.836984245972</v>
       </c>
       <c r="S3">
-        <v>0.1741898397678366</v>
+        <v>0.0872698471031553</v>
       </c>
       <c r="T3">
-        <v>0.1741898397678366</v>
+        <v>0.08726984710315532</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,40 +670,40 @@
         <v>2.740273</v>
       </c>
       <c r="I4">
-        <v>0.4164467621298553</v>
+        <v>0.2338231012639866</v>
       </c>
       <c r="J4">
-        <v>0.4164467621298553</v>
+        <v>0.2338231012639866</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04091566666666667</v>
+        <v>0.4199566666666667</v>
       </c>
       <c r="N4">
-        <v>0.122747</v>
+        <v>1.25987</v>
       </c>
       <c r="O4">
-        <v>0.01095986083895566</v>
+        <v>0.1003768024076347</v>
       </c>
       <c r="P4">
-        <v>0.01095986083895566</v>
+        <v>0.1003768024076346</v>
       </c>
       <c r="Q4">
-        <v>0.03737336554788889</v>
+        <v>0.383598638278889</v>
       </c>
       <c r="R4">
-        <v>0.336360289931</v>
+        <v>3.45238774451</v>
       </c>
       <c r="S4">
-        <v>0.004564198559776886</v>
+        <v>0.02347041523391553</v>
       </c>
       <c r="T4">
-        <v>0.004564198559776885</v>
+        <v>0.02347041523391553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -732,54 +732,54 @@
         <v>2.740273</v>
       </c>
       <c r="I5">
-        <v>0.4164467621298553</v>
+        <v>0.2338231012639866</v>
       </c>
       <c r="J5">
-        <v>0.4164467621298553</v>
+        <v>0.2338231012639866</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04771566666666666</v>
+        <v>0.03131333333333333</v>
       </c>
       <c r="N5">
-        <v>0.143147</v>
+        <v>0.09394</v>
       </c>
       <c r="O5">
-        <v>0.01278134047686694</v>
+        <v>0.007484420470503464</v>
       </c>
       <c r="P5">
-        <v>0.01278134047686694</v>
+        <v>0.007484420470503464</v>
       </c>
       <c r="Q5">
-        <v>0.04358465101455555</v>
+        <v>0.02860236062444444</v>
       </c>
       <c r="R5">
-        <v>0.392261859131</v>
+        <v>0.25742124562</v>
       </c>
       <c r="S5">
-        <v>0.005322747857270498</v>
+        <v>0.001750030405576786</v>
       </c>
       <c r="T5">
-        <v>0.005322747857270497</v>
+        <v>0.001750030405576786</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9134243333333334</v>
+        <v>1.830769666666667</v>
       </c>
       <c r="H6">
-        <v>2.740273</v>
+        <v>5.492309000000001</v>
       </c>
       <c r="I6">
-        <v>0.4164467621298553</v>
+        <v>0.4686499204568687</v>
       </c>
       <c r="J6">
-        <v>0.4164467621298553</v>
+        <v>0.4686499204568688</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1059233333333333</v>
+        <v>2.171010666666667</v>
       </c>
       <c r="N6">
-        <v>0.31777</v>
+        <v>6.513032</v>
       </c>
       <c r="O6">
-        <v>0.02837311688916993</v>
+        <v>0.5189085589295733</v>
       </c>
       <c r="P6">
-        <v>0.02837311688916993</v>
+        <v>0.5189085589295733</v>
       </c>
       <c r="Q6">
-        <v>0.09675295013444445</v>
+        <v>3.974620474543111</v>
       </c>
       <c r="R6">
-        <v>0.8707765512100001</v>
+        <v>35.77158427088801</v>
       </c>
       <c r="S6">
-        <v>0.01181589266002673</v>
+        <v>0.2431864548667329</v>
       </c>
       <c r="T6">
-        <v>0.01181589266002673</v>
+        <v>0.2431864548667329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.279951666666667</v>
+        <v>1.830769666666667</v>
       </c>
       <c r="H7">
-        <v>3.839855</v>
+        <v>5.492309000000001</v>
       </c>
       <c r="I7">
-        <v>0.5835532378701448</v>
+        <v>0.4686499204568687</v>
       </c>
       <c r="J7">
-        <v>0.5835532378701448</v>
+        <v>0.4686499204568688</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.977152666666667</v>
+        <v>1.561521333333333</v>
       </c>
       <c r="N7">
-        <v>5.931458</v>
+        <v>4.684564</v>
       </c>
       <c r="O7">
-        <v>0.5296093122610759</v>
+        <v>0.3732302181922886</v>
       </c>
       <c r="P7">
-        <v>0.5296093122610759</v>
+        <v>0.3732302181922886</v>
       </c>
       <c r="Q7">
-        <v>2.530659850954444</v>
+        <v>2.858785890919556</v>
       </c>
       <c r="R7">
-        <v>22.77593865859</v>
+        <v>25.729073018276</v>
       </c>
       <c r="S7">
-        <v>0.3090552289761314</v>
+        <v>0.1749143120679158</v>
       </c>
       <c r="T7">
-        <v>0.3090552289761314</v>
+        <v>0.1749143120679158</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.279951666666667</v>
+        <v>1.830769666666667</v>
       </c>
       <c r="H8">
-        <v>3.839855</v>
+        <v>5.492309000000001</v>
       </c>
       <c r="I8">
-        <v>0.5835532378701448</v>
+        <v>0.4686499204568687</v>
       </c>
       <c r="J8">
-        <v>0.5835532378701448</v>
+        <v>0.4686499204568688</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.561521333333333</v>
+        <v>0.4199566666666667</v>
       </c>
       <c r="N8">
-        <v>4.684564</v>
+        <v>1.25987</v>
       </c>
       <c r="O8">
-        <v>0.4182763695339315</v>
+        <v>0.1003768024076347</v>
       </c>
       <c r="P8">
-        <v>0.4182763695339315</v>
+        <v>0.1003768024076346</v>
       </c>
       <c r="Q8">
-        <v>1.998671833135556</v>
+        <v>0.7688439266477779</v>
       </c>
       <c r="R8">
-        <v>17.98804649822</v>
+        <v>6.919595339830001</v>
       </c>
       <c r="S8">
-        <v>0.2440865297660949</v>
+        <v>0.04704158046405281</v>
       </c>
       <c r="T8">
-        <v>0.2440865297660949</v>
+        <v>0.04704158046405281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.279951666666667</v>
+        <v>1.830769666666667</v>
       </c>
       <c r="H9">
-        <v>3.839855</v>
+        <v>5.492309000000001</v>
       </c>
       <c r="I9">
-        <v>0.5835532378701448</v>
+        <v>0.4686499204568687</v>
       </c>
       <c r="J9">
-        <v>0.5835532378701448</v>
+        <v>0.4686499204568688</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,42 +992,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.04091566666666667</v>
+        <v>0.03131333333333333</v>
       </c>
       <c r="N9">
-        <v>0.122747</v>
+        <v>0.09394</v>
       </c>
       <c r="O9">
-        <v>0.01095986083895566</v>
+        <v>0.007484420470503464</v>
       </c>
       <c r="P9">
-        <v>0.01095986083895566</v>
+        <v>0.007484420470503464</v>
       </c>
       <c r="Q9">
-        <v>0.05237007574277778</v>
+        <v>0.05732750082888889</v>
       </c>
       <c r="R9">
-        <v>0.471330681685</v>
+        <v>0.5159475074600001</v>
       </c>
       <c r="S9">
-        <v>0.006395662279178779</v>
+        <v>0.003507573058167208</v>
       </c>
       <c r="T9">
-        <v>0.006395662279178778</v>
+        <v>0.003507573058167208</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,108 +1036,232 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.279951666666667</v>
+        <v>1.162282</v>
       </c>
       <c r="H10">
-        <v>3.839855</v>
+        <v>3.486846</v>
       </c>
       <c r="I10">
-        <v>0.5835532378701448</v>
+        <v>0.2975269782791446</v>
       </c>
       <c r="J10">
-        <v>0.5835532378701448</v>
+        <v>0.2975269782791446</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.04771566666666666</v>
+        <v>2.171010666666667</v>
       </c>
       <c r="N10">
-        <v>0.143147</v>
+        <v>6.513032</v>
       </c>
       <c r="O10">
-        <v>0.01278134047686694</v>
+        <v>0.5189085589295733</v>
       </c>
       <c r="P10">
-        <v>0.01278134047686694</v>
+        <v>0.5189085589295733</v>
       </c>
       <c r="Q10">
-        <v>0.0610737470761111</v>
+        <v>2.523326619674667</v>
       </c>
       <c r="R10">
-        <v>0.5496637236849999</v>
+        <v>22.709939577072</v>
       </c>
       <c r="S10">
-        <v>0.007458592619596443</v>
+        <v>0.1543892955415014</v>
       </c>
       <c r="T10">
-        <v>0.007458592619596443</v>
+        <v>0.1543892955415014</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.162282</v>
+      </c>
+      <c r="H11">
+        <v>3.486846</v>
+      </c>
+      <c r="I11">
+        <v>0.2975269782791446</v>
+      </c>
+      <c r="J11">
+        <v>0.2975269782791446</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.561521333333333</v>
+      </c>
+      <c r="N11">
+        <v>4.684564</v>
+      </c>
+      <c r="O11">
+        <v>0.3732302181922886</v>
+      </c>
+      <c r="P11">
+        <v>0.3732302181922886</v>
+      </c>
+      <c r="Q11">
+        <v>1.814928138349333</v>
+      </c>
+      <c r="R11">
+        <v>16.334353245144</v>
+      </c>
+      <c r="S11">
+        <v>0.1110460590212175</v>
+      </c>
+      <c r="T11">
+        <v>0.1110460590212175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.162282</v>
+      </c>
+      <c r="H12">
+        <v>3.486846</v>
+      </c>
+      <c r="I12">
+        <v>0.2975269782791446</v>
+      </c>
+      <c r="J12">
+        <v>0.2975269782791446</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4199566666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.25987</v>
+      </c>
+      <c r="O12">
+        <v>0.1003768024076347</v>
+      </c>
+      <c r="P12">
+        <v>0.1003768024076346</v>
+      </c>
+      <c r="Q12">
+        <v>0.4881080744466667</v>
+      </c>
+      <c r="R12">
+        <v>4.39297267002</v>
+      </c>
+      <c r="S12">
+        <v>0.02986480670966631</v>
+      </c>
+      <c r="T12">
+        <v>0.02986480670966631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.279951666666667</v>
-      </c>
-      <c r="H11">
-        <v>3.839855</v>
-      </c>
-      <c r="I11">
-        <v>0.5835532378701448</v>
-      </c>
-      <c r="J11">
-        <v>0.5835532378701448</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.1059233333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.31777</v>
-      </c>
-      <c r="O11">
-        <v>0.02837311688916993</v>
-      </c>
-      <c r="P11">
-        <v>0.02837311688916993</v>
-      </c>
-      <c r="Q11">
-        <v>0.1355767470388889</v>
-      </c>
-      <c r="R11">
-        <v>1.22019072335</v>
-      </c>
-      <c r="S11">
-        <v>0.0165572242291432</v>
-      </c>
-      <c r="T11">
-        <v>0.0165572242291432</v>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.162282</v>
+      </c>
+      <c r="H13">
+        <v>3.486846</v>
+      </c>
+      <c r="I13">
+        <v>0.2975269782791446</v>
+      </c>
+      <c r="J13">
+        <v>0.2975269782791446</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03131333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.09394</v>
+      </c>
+      <c r="O13">
+        <v>0.007484420470503464</v>
+      </c>
+      <c r="P13">
+        <v>0.007484420470503464</v>
+      </c>
+      <c r="Q13">
+        <v>0.03639492369333333</v>
+      </c>
+      <c r="R13">
+        <v>0.32755431324</v>
+      </c>
+      <c r="S13">
+        <v>0.00222681700675947</v>
+      </c>
+      <c r="T13">
+        <v>0.00222681700675947</v>
       </c>
     </row>
   </sheetData>
